--- a/data.xlsx
+++ b/data.xlsx
@@ -1036,7 +1036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -2279,6 +2279,28 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>varun</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>var@gmail</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>100009389</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19200" windowHeight="6830" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19635" windowHeight="7530" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -1036,15 +1036,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col width="14.5454545454545" customWidth="1" min="3" max="3"/>
+    <col width="17.2857142857143" customWidth="1" min="1" max="1"/>
+    <col width="22.4285714285714" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="20.2857142857143" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2301,6 +2304,72 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Harish Gupta</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>gupta.harish@gmail.com</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>6300062944</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Medical</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Bharghavi Kumar</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>bharghavi@yahoo.com</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>7384410032</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Shrimanth</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>m.shrimanth@yahoo.com</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>7880443661</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1036,7 +1036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -2301,6 +2301,50 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>chaa</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>chaaa@</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>9090909</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Medical</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>chaa</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>chaaa@</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>898989898</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
